--- a/models/results_minmax.xlsx
+++ b/models/results_minmax.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,17 +165,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,9 +221,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +290,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,14 +466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,58 +502,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>342.9867137857726</v>
+        <v>342.98671378577262</v>
       </c>
       <c r="C2">
         <v>431.8647224662767</v>
       </c>
       <c r="D2">
-        <v>0.4580017441227324</v>
+        <v>0.45800174412273242</v>
       </c>
       <c r="E2">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>150.7245294647906</v>
+        <v>150.72452946479061</v>
       </c>
       <c r="C3">
-        <v>192.3115264891264</v>
+        <v>192.31152648912641</v>
       </c>
       <c r="D3">
-        <v>0.574080644019405</v>
+        <v>0.57408064401940495</v>
       </c>
       <c r="E3">
-        <v>0.167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>431.3674193539809</v>
+        <v>431.36741935398089</v>
       </c>
       <c r="C4">
-        <v>533.8502820023062</v>
+        <v>533.85028200230624</v>
       </c>
       <c r="D4">
-        <v>0.06893007879806248</v>
+        <v>6.8930078798062483E-2</v>
       </c>
       <c r="E4">
         <v>2.988</v>
@@ -538,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -546,30 +570,30 @@
         <v>191.2677814695833</v>
       </c>
       <c r="C5">
-        <v>235.4662424260862</v>
+        <v>235.46624242608621</v>
       </c>
       <c r="D5">
-        <v>0.4259940120280096</v>
+        <v>0.42599401202800963</v>
       </c>
       <c r="E5">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>442.2587734239497</v>
+        <v>442.25877342394972</v>
       </c>
       <c r="C6">
-        <v>557.6083827488663</v>
+        <v>557.60838274886635</v>
       </c>
       <c r="D6">
-        <v>0.163675991556873</v>
+        <v>0.16367599155687301</v>
       </c>
       <c r="E6">
         <v>2.82</v>
@@ -578,58 +602,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>175.4323668178278</v>
+        <v>175.43236681782781</v>
       </c>
       <c r="C7">
-        <v>222.489239064954</v>
+        <v>222.48923906495401</v>
       </c>
       <c r="D7">
-        <v>0.4391674961495436</v>
+        <v>0.43916749614954359</v>
       </c>
       <c r="E7">
-        <v>5.564</v>
+        <v>5.5640000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>351.4810842380101</v>
+        <v>351.48108423801011</v>
       </c>
       <c r="C8">
-        <v>440.2777701453194</v>
+        <v>440.27777014531938</v>
       </c>
       <c r="D8">
-        <v>0.4156625244187327</v>
+        <v>0.41566252441873269</v>
       </c>
       <c r="E8">
-        <v>215.956</v>
+        <v>215.95599999999999</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>154.7511585818332</v>
+        <v>154.75115858183321</v>
       </c>
       <c r="C9">
-        <v>196.7017815954954</v>
+        <v>196.70178159549539</v>
       </c>
       <c r="D9">
-        <v>0.5609816739253705</v>
+        <v>0.56098167392537046</v>
       </c>
       <c r="E9">
         <v>59.2</v>
